--- a/WorkBot/refactor/data/orders/Russo Produce/CompletedOrders/Russo Produce_Triphammer_2025-08-03.xlsx
+++ b/WorkBot/refactor/data/orders/Russo Produce/CompletedOrders/Russo Produce_Triphammer_2025-08-03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>21.50</t>
         </is>
       </c>
     </row>
@@ -715,87 +715,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>44.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>VONRD</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Onion - Red Jumbo Fresh</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VPOTC</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Potato - Chef</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FBERST</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Strawberry - Fresh</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>129.00</t>
         </is>
       </c>
     </row>
